--- a/banhang24/Template/ImportExcel/QuanLyHangHoaTheoLo/FileImport_DanhMucHangHoa.xlsx
+++ b/banhang24/Template/ImportExcel/QuanLyHangHoaTheoLo/FileImport_DanhMucHangHoa.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>Nhóm hàng hóa</t>
   </si>
@@ -244,9 +244,6 @@
     <t>Thuộc tính 2</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Quần Sóc Nữ</t>
   </si>
   <si>
@@ -294,6 +291,12 @@
   </si>
   <si>
     <t>Combo chăm sóc da mặt</t>
+  </si>
+  <si>
+    <t>Vị trí</t>
+  </si>
+  <si>
+    <t>Kho A</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,6 +584,9 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,6 +610,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -918,10 +933,10 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:V1"/>
+      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,66 +966,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="48" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="27"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47" t="s">
+      <c r="R2" s="48"/>
+      <c r="S2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="42" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:22" s="18" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1020,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>3</v>
@@ -1035,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>15</v>
@@ -1059,7 +1076,7 @@
         <v>19</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="28" t="s">
         <v>20</v>
@@ -1077,7 +1094,7 @@
         <v>52</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1088,7 +1105,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="22">
         <v>42926</v>
@@ -1130,6 +1147,9 @@
       <c r="U4" s="20">
         <v>40</v>
       </c>
+      <c r="V4" s="19" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -1188,7 +1208,7 @@
         <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1253,7 +1273,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>10</v>
@@ -1375,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="P11" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="32"/>
       <c r="R11" s="5"/>
@@ -1394,10 +1414,10 @@
       <c r="E12" s="22"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1641,9 +1661,9 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:V2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Cảnh báo" error="Giá vốn: Bạn chỉ được phép nhập số vào bảng tính excel" sqref="WVT4:WVT12 JH1 TD1 ACZ1 AMV1 AWR1 BGN1 BQJ1 CAF1 CKB1 CTX1 DDT1 DNP1 DXL1 EHH1 ERD1 FAZ1 FKV1 FUR1 GEN1 GOJ1 GYF1 HIB1 HRX1 IBT1 ILP1 IVL1 JFH1 JPD1 JYZ1 KIV1 KSR1 LCN1 LMJ1 LWF1 MGB1 MPX1 MZT1 NJP1 NTL1 ODH1 OND1 OWZ1 PGV1 PQR1 QAN1 QKJ1 QUF1 REB1 RNX1 RXT1 SHP1 SRL1 TBH1 TLD1 TUZ1 UEV1 UOR1 UYN1 VIJ1 VSF1 WCB1 WLX1 WVT1 WLX4:WLX12 WCB4:WCB12 VSF4:VSF12 VIJ4:VIJ12 UYN4:UYN12 UOR4:UOR12 UEV4:UEV12 TUZ4:TUZ12 TLD4:TLD12 TBH4:TBH12 SRL4:SRL12 SHP4:SHP12 RXT4:RXT12 RNX4:RNX12 REB4:REB12 QUF4:QUF12 QKJ4:QKJ12 QAN4:QAN12 PQR4:PQR12 PGV4:PGV12 OWZ4:OWZ12 OND4:OND12 ODH4:ODH12 NTL4:NTL12 NJP4:NJP12 MZT4:MZT12 MPX4:MPX12 MGB4:MGB12 LWF4:LWF12 LMJ4:LMJ12 LCN4:LCN12 KSR4:KSR12 KIV4:KIV12 JYZ4:JYZ12 JPD4:JPD12 JFH4:JFH12 IVL4:IVL12 ILP4:ILP12 IBT4:IBT12 HRX4:HRX12 HIB4:HIB12 GYF4:GYF12 GOJ4:GOJ12 GEN4:GEN12 FUR4:FUR12 FKV4:FKV12 FAZ4:FAZ12 ERD4:ERD12 EHH4:EHH12 DXL4:DXL12 DNP4:DNP12 DDT4:DDT12 CTX4:CTX12 CKB4:CKB12 CAF4:CAF12 BQJ4:BQJ12 BGN4:BGN12 AWR4:AWR12 AMV4:AMV12 ACZ4:ACZ12 TD4:TD12 JH4:JH12">
